--- a/examples/interaction_lists/usr_reach_fries_1_interactions.xlsx
+++ b/examples/interaction_lists/usr_reach_fries_1_interactions.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Regulator HGNC ID</t>
+          <t>Regulator HGNC Symbol</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Regulated HGNC ID</t>
+          <t>Regulated HGNC Symbol</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
